--- a/ISO27k FMEA - Risk Assessment spreadsheet_variation.xlsx
+++ b/ISO27k FMEA - Risk Assessment spreadsheet_variation.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geostergiop\Dropbox\ΜΑΘΗΜΑΤΑ\AUEB\ΑΣΦΑΛΕΙΑ - ΓΚΡΙΤΖ\ΕΡΓΑΣΙΕΣ\ISSEC-18-project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651C0FE7-BC57-4517-9409-7C5C13ABE4A1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="11940" windowHeight="3450" tabRatio="864" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="864" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="9" r:id="rId1"/>
@@ -18,24 +24,24 @@
     <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'FMEA Sample'!$A$1:$K$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'FMEA Sample'!$A$1:$K$9</definedName>
     <definedName name="Calc_sens2">[1]!Calc_sens2</definedName>
     <definedName name="Clear_sens2">[1]!Clear_sens2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">Likelihood!$B$2:$D$12</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">Vulnerability!$B$2:$B$12</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'FMEA Sample'!$2:$3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>bala</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -47,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -60,19 +66,19 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
           </rPr>
           <t>if the vulnerability happens, then what could be the effect of the failure? If there is more than one failure list them seperately</t>
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -84,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -96,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -108,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -125,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="122">
   <si>
     <t>RPN</t>
   </si>
@@ -248,9 +254,6 @@
   </si>
   <si>
     <t>To block unauthorized requests</t>
-  </si>
-  <si>
-    <t>Rules not appropriately configured</t>
   </si>
   <si>
     <t>Log Monitoring</t>
@@ -727,15 +730,9 @@
     <t>Personal information</t>
   </si>
   <si>
-    <t>Workstation</t>
-  </si>
-  <si>
     <t xml:space="preserve">Input employee data </t>
   </si>
   <si>
-    <t>Not updated  for 3 months</t>
-  </si>
-  <si>
     <t>XSS attack</t>
   </si>
   <si>
@@ -751,20 +748,47 @@
     <t xml:space="preserve">Leakage of personal data </t>
   </si>
   <si>
-    <t>AMSRV003</t>
-  </si>
-  <si>
     <t>SQL Injection</t>
+  </si>
+  <si>
+    <t>Illegitimate access</t>
+  </si>
+  <si>
+    <t>Web server</t>
+  </si>
+  <si>
+    <t>Database server</t>
+  </si>
+  <si>
+    <t>Main Router Cisco 2911</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>Interception of communications</t>
+  </si>
+  <si>
+    <t>Technical failure</t>
+  </si>
+  <si>
+    <t>No support / IT service not available / No backup device</t>
+  </si>
+  <si>
+    <t>Default username / password</t>
+  </si>
+  <si>
+    <t>Confidentiality breach on Financial data (cards)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -967,6 +991,11 @@
       <charset val="161"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -1515,7 +1544,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1739,6 +1768,9 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="12" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1829,10 +1861,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_FP_DESN" xfId="1"/>
+    <cellStyle name="Normal_FP_DESN" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1938,6 +1976,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="8193" name="Picture 1" descr="ISO27001security logo 150">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001200000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -1993,7 +2036,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8194" name="Picture 2" descr="Creative Commons some rights reserved"/>
+        <xdr:cNvPr id="8194" name="Picture 2" descr="Creative Commons some rights reserved">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002200000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2400,14 +2449,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:B173"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="36" customWidth="1"/>
     <col min="2" max="2" width="158.28515625" style="36" customWidth="1"/>
@@ -2416,7 +2465,7 @@
   <sheetData>
     <row r="1" spans="2:2" ht="168.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2424,7 +2473,7 @@
     </row>
     <row r="3" spans="2:2" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B3" s="43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
@@ -2432,7 +2481,7 @@
     </row>
     <row r="5" spans="2:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B5" s="40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -2440,7 +2489,7 @@
     </row>
     <row r="7" spans="2:2" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B7" s="43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2448,17 +2497,17 @@
     </row>
     <row r="9" spans="2:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="2:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2466,7 +2515,7 @@
     </row>
     <row r="13" spans="2:2" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B13" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="2:2" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2474,7 +2523,7 @@
     </row>
     <row r="15" spans="2:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B15" s="46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2482,7 +2531,7 @@
     </row>
     <row r="17" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2490,12 +2539,12 @@
     </row>
     <row r="19" spans="2:2" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B19" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="51" x14ac:dyDescent="0.2">
       <c r="B20" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.2">
@@ -2966,7 +3015,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B27"/>
   <sheetViews>
@@ -2974,7 +3023,7 @@
       <selection activeCell="A19" sqref="A19:XFD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.7109375" style="36" customWidth="1"/>
     <col min="2" max="2" width="141.28515625" style="32" bestFit="1" customWidth="1"/>
@@ -2984,32 +3033,32 @@
     <row r="1" spans="1:2" s="34" customFormat="1" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A1" s="35"/>
       <c r="B1" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3017,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3025,7 +3074,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3033,7 +3082,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3041,7 +3090,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3049,7 +3098,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3057,7 +3106,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3065,7 +3114,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3073,7 +3122,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3081,7 +3130,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3089,49 +3138,49 @@
         <v>13</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="38"/>
       <c r="B21" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="38"/>
       <c r="B22" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -3143,23 +3192,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.85546875" style="41" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" style="36" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="36" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="36" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="36" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" style="36" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="36" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="36" customWidth="1"/>
     <col min="8" max="8" width="19.42578125" style="42" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.28515625" style="36" customWidth="1"/>
     <col min="10" max="10" width="13" style="36" customWidth="1"/>
@@ -3169,67 +3218,67 @@
   <sheetData>
     <row r="1" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" s="51" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="89" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="91" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="91" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="75" t="s">
+      <c r="E2" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="75" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" s="81" t="s">
+      <c r="H2" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="82"/>
-      <c r="J2" s="75" t="s">
-        <v>80</v>
-      </c>
-      <c r="K2" s="78" t="s">
+      <c r="I2" s="83"/>
+      <c r="J2" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" s="79" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="51" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="86"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="79"/>
+      <c r="A3" s="87"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="80"/>
     </row>
     <row r="4" spans="1:11" s="51" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
       <c r="H4" s="62" t="s">
         <v>34</v>
       </c>
       <c r="I4" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="77"/>
-      <c r="K4" s="80"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="81"/>
     </row>
     <row r="5" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="74" t="s">
@@ -3239,13 +3288,13 @@
         <v>40</v>
       </c>
       <c r="C5" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="64" t="s">
-        <v>115</v>
+        <v>111</v>
+      </c>
+      <c r="D5" s="75" t="s">
+        <v>112</v>
       </c>
       <c r="E5" s="64" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F5" s="69">
         <v>10</v>
@@ -3254,7 +3303,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I5" s="64"/>
       <c r="J5" s="69">
@@ -3267,69 +3316,137 @@
     </row>
     <row r="6" spans="1:11" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="66" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C6" s="67" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="67" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6" s="66" t="s">
-        <v>111</v>
-      </c>
-      <c r="F6" s="70">
-        <v>9</v>
-      </c>
-      <c r="G6" s="70">
+        <v>119</v>
+      </c>
+      <c r="D6" s="106" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="71">
         <v>8</v>
       </c>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66" t="s">
+      <c r="G6" s="71">
+        <v>3</v>
+      </c>
+      <c r="H6" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="70">
-        <v>8</v>
+      <c r="I6" s="67"/>
+      <c r="J6" s="71">
+        <v>3</v>
       </c>
       <c r="K6" s="73">
-        <f>F6*G6*J6</f>
-        <v>576</v>
+        <f t="shared" ref="K6:K7" si="0">F6*G6*J6</f>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="57" x14ac:dyDescent="0.2">
       <c r="A7" s="66" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C7" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="67" t="s">
-        <v>109</v>
+        <v>120</v>
+      </c>
+      <c r="D7" s="106" t="s">
+        <v>117</v>
       </c>
       <c r="E7" s="67" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="F7" s="71">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7" s="71">
         <v>3</v>
       </c>
       <c r="H7" s="68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7" s="67"/>
       <c r="J7" s="71">
         <v>3</v>
       </c>
       <c r="K7" s="73">
-        <f>F7*G7*J7</f>
+        <f t="shared" ref="K7" si="1">F7*G7*J7</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A8" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="70">
+        <v>9</v>
+      </c>
+      <c r="G8" s="70">
+        <v>8</v>
+      </c>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="70">
+        <v>8</v>
+      </c>
+      <c r="K8" s="73">
+        <f>F8*G8*J8</f>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A9" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="105" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="71">
+        <v>8</v>
+      </c>
+      <c r="G9" s="71">
+        <v>3</v>
+      </c>
+      <c r="H9" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="67"/>
+      <c r="J9" s="71">
+        <v>3</v>
+      </c>
+      <c r="K9" s="73">
+        <f>F9*G9*J9</f>
         <v>72</v>
       </c>
     </row>
@@ -3354,14 +3471,14 @@
     <oddFooter>Page &amp;P</oddFooter>
   </headerFooter>
   <colBreaks count="9" manualBreakCount="9">
-    <brk id="215" min="157" max="24316" man="1"/>
+    <brk id="215" min="153" max="24312" man="1"/>
     <brk id="26296" min="876" max="2794" man="1"/>
-    <brk id="72" min="54" max="69" man="1"/>
-    <brk id="106" min="85" max="88" man="1"/>
-    <brk id="43" min="25" max="35" man="1"/>
-    <brk id="66" min="56" max="57" man="1"/>
-    <brk id="87" min="64" max="81" man="1"/>
-    <brk id="90" min="44" max="88" man="1"/>
+    <brk id="72" min="50" max="65" man="1"/>
+    <brk id="106" min="81" max="84" man="1"/>
+    <brk id="43" min="21" max="31" man="1"/>
+    <brk id="66" min="52" max="53" man="1"/>
+    <brk id="87" min="60" max="77" man="1"/>
+    <brk id="90" min="40" max="84" man="1"/>
     <brk id="24339" min="1" max="2" man="1"/>
   </colBreaks>
   <legacyDrawing r:id="rId2"/>
@@ -3369,7 +3486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:U48"/>
   <sheetViews>
@@ -3377,7 +3494,7 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="3" customWidth="1"/>
@@ -3415,7 +3532,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>2</v>
@@ -4568,7 +4685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:S63"/>
   <sheetViews>
@@ -4576,11 +4693,11 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="36.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" style="3" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
@@ -4635,8 +4752,8 @@
     </row>
     <row r="3" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="31"/>
-      <c r="B3" s="97" t="s">
-        <v>88</v>
+      <c r="B3" s="98" t="s">
+        <v>87</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>13</v>
@@ -4662,7 +4779,7 @@
     </row>
     <row r="4" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="31"/>
-      <c r="B4" s="98"/>
+      <c r="B4" s="99"/>
       <c r="C4" s="13" t="s">
         <v>14</v>
       </c>
@@ -4687,8 +4804,8 @@
     </row>
     <row r="5" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="31"/>
-      <c r="B5" s="97" t="s">
-        <v>89</v>
+      <c r="B5" s="98" t="s">
+        <v>88</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>15</v>
@@ -4714,7 +4831,7 @@
     </row>
     <row r="6" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="31"/>
-      <c r="B6" s="98"/>
+      <c r="B6" s="99"/>
       <c r="C6" s="13" t="s">
         <v>16</v>
       </c>
@@ -4739,8 +4856,8 @@
     </row>
     <row r="7" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="31"/>
-      <c r="B7" s="99" t="s">
-        <v>90</v>
+      <c r="B7" s="100" t="s">
+        <v>89</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>17</v>
@@ -4766,7 +4883,7 @@
     </row>
     <row r="8" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="31"/>
-      <c r="B8" s="100"/>
+      <c r="B8" s="101"/>
       <c r="C8" s="14" t="s">
         <v>18</v>
       </c>
@@ -4791,7 +4908,7 @@
     </row>
     <row r="9" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="31"/>
-      <c r="B9" s="101"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="14" t="s">
         <v>19</v>
       </c>
@@ -4816,8 +4933,8 @@
     </row>
     <row r="10" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
-      <c r="B10" s="102" t="s">
-        <v>91</v>
+      <c r="B10" s="103" t="s">
+        <v>90</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>20</v>
@@ -4843,7 +4960,7 @@
     </row>
     <row r="11" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="31"/>
-      <c r="B11" s="103"/>
+      <c r="B11" s="104"/>
       <c r="C11" s="24" t="s">
         <v>21</v>
       </c>
@@ -4869,7 +4986,7 @@
     <row r="12" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31"/>
       <c r="B12" s="52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>22</v>
@@ -5982,7 +6099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:AD53"/>
   <sheetViews>
@@ -5990,7 +6107,7 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="62.7109375" style="2" customWidth="1"/>
@@ -6030,7 +6147,7 @@
     <row r="2" spans="1:30" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="30"/>
       <c r="B2" s="53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="53" t="s">
         <v>2</v>
@@ -6066,7 +6183,7 @@
     <row r="3" spans="1:30" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A3" s="29"/>
       <c r="B3" s="59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" s="54">
         <v>10</v>
@@ -6102,7 +6219,7 @@
     <row r="4" spans="1:30" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="29"/>
       <c r="B4" s="57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="54">
         <v>9</v>
@@ -6138,7 +6255,7 @@
     <row r="5" spans="1:30" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A5" s="29"/>
       <c r="B5" s="59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" s="54">
         <v>8</v>
@@ -6174,7 +6291,7 @@
     <row r="6" spans="1:30" ht="57" x14ac:dyDescent="0.2">
       <c r="A6" s="29"/>
       <c r="B6" s="59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="54">
         <v>7</v>
@@ -6210,7 +6327,7 @@
     <row r="7" spans="1:30" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A7" s="29"/>
       <c r="B7" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" s="54">
         <v>6</v>
@@ -6246,7 +6363,7 @@
     <row r="8" spans="1:30" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="29"/>
       <c r="B8" s="61" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8" s="55">
         <v>5</v>
@@ -6282,7 +6399,7 @@
     <row r="9" spans="1:30" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="29"/>
       <c r="B9" s="61" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C9" s="55">
         <v>4</v>
@@ -6318,7 +6435,7 @@
     <row r="10" spans="1:30" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A10" s="29"/>
       <c r="B10" s="60" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" s="56">
         <v>3</v>
@@ -6354,7 +6471,7 @@
     <row r="11" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="29"/>
       <c r="B11" s="60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" s="56">
         <v>2</v>
@@ -6390,7 +6507,7 @@
     <row r="12" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="29"/>
       <c r="B12" s="58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" s="56">
         <v>1</v>
